--- a/Project2Data.xlsx
+++ b/Project2Data.xlsx
@@ -5,22 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mnscu-my.sharepoint.com/personal/yv3584fj_minnstate_edu/Documents/Spring 2021/CS 405-01/Projects/CPU_Scheduling_Simulator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nn4263xb/Documents/GitHub/CPU_Scheduling_Simulator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D320D98-FDE5-5241-B313-6A99762DB1AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B44B64D-4989-A84B-ACA7-51621352115A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{C291A64C-FCA0-F542-9B2C-C7BA183D8C20}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
   <si>
     <t>SJF</t>
   </si>
@@ -53,16 +48,10 @@
     <t>Round Robin Q= 10</t>
   </si>
   <si>
-    <t>Ave Wait time</t>
-  </si>
-  <si>
     <t>CPU Utilization</t>
   </si>
   <si>
     <t>Throughput</t>
-  </si>
-  <si>
-    <t>Ave Turn Around</t>
   </si>
   <si>
     <t>Scenario: Scenariodata</t>
@@ -80,40 +69,10 @@
     <t>Scenario: ScenariodataCpuBound</t>
   </si>
   <si>
-    <t>Scenariodata</t>
+    <t>Avg Wait time</t>
   </si>
   <si>
-    <t>Scenariodata3</t>
-  </si>
-  <si>
-    <t>Scenariodata-long-burst</t>
-  </si>
-  <si>
-    <t>ScenarioDataCpuBound</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Schedule</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Average of Ave Wait time</t>
-  </si>
-  <si>
-    <t>Average of CPU Utilization</t>
-  </si>
-  <si>
-    <t>Average of Throughput</t>
-  </si>
-  <si>
-    <t>Average of Ave Turn Around</t>
+    <t>Avg Turn Around</t>
   </si>
 </sst>
 </file>
@@ -145,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -168,184 +127,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -448,7 +243,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Wait time</c:v>
+                  <c:v>Avg Wait time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -679,7 +474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Turn Around</c:v>
+                  <c:v>Avg Turn Around</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1039,7 +834,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Wait time</c:v>
+                  <c:v>Avg Wait time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1270,7 +1065,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Turn Around</c:v>
+                  <c:v>Avg Turn Around</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1631,7 +1426,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Wait time</c:v>
+                  <c:v>Avg Wait time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1862,7 +1657,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Turn Around</c:v>
+                  <c:v>Avg Turn Around</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2218,7 +2013,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Wait time</c:v>
+                  <c:v>Avg Wait time</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2449,7 +2244,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ave Turn Around</c:v>
+                  <c:v>Avg Turn Around</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5041,502 +4836,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Brian Steele" refreshedDate="44266.655683564815" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="20" xr:uid="{1360A3D6-0C78-7E4C-88D9-B009B188ADCF}">
-  <cacheSource type="worksheet">
-    <worksheetSource name="Table1"/>
-  </cacheSource>
-  <cacheFields count="6">
-    <cacheField name="Name" numFmtId="0">
-      <sharedItems count="4">
-        <s v="Scenariodata"/>
-        <s v="Scenariodata3"/>
-        <s v="Scenariodata-long-burst"/>
-        <s v="ScenarioDataCpuBound"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Schedule" numFmtId="0">
-      <sharedItems count="5">
-        <s v="FCFS"/>
-        <s v="SJF"/>
-        <s v="Priority"/>
-        <s v="Round Robin Q= 5"/>
-        <s v="Round Robin Q= 10"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Ave Wait time" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="500.5" count="15">
-        <n v="23.5"/>
-        <n v="21"/>
-        <n v="21.25"/>
-        <n v="24.75"/>
-        <n v="0"/>
-        <n v="62"/>
-        <n v="47"/>
-        <n v="62.75"/>
-        <n v="82"/>
-        <n v="79.5"/>
-        <n v="441"/>
-        <n v="324.5"/>
-        <n v="344.25"/>
-        <n v="500.5"/>
-        <n v="499.75"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="CPU Utilization" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="65.384609999999995" maxValue="99.748429999999999" count="9">
-        <n v="96.923079999999999"/>
-        <n v="94.029849999999996"/>
-        <n v="65.384609999999995"/>
-        <n v="76.252319999999997"/>
-        <n v="78.435119999999998"/>
-        <n v="72.872339999999994"/>
-        <n v="73.524154999999993"/>
-        <n v="99.748429999999999"/>
-        <n v="99.001239999999996"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Throughput" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="26" maxValue="717.25" count="15">
-        <n v="52.75"/>
-        <n v="50"/>
-        <n v="50.25"/>
-        <n v="54.5"/>
-        <n v="26"/>
-        <n v="357.25"/>
-        <n v="336"/>
-        <n v="360"/>
-        <n v="364.75"/>
-        <n v="377"/>
-        <n v="657.75"/>
-        <n v="541.25"/>
-        <n v="561"/>
-        <n v="717.25"/>
-        <n v="716.5"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Ave Turn Around" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="24" maxValue="710" count="15">
-        <n v="45.5"/>
-        <n v="42.75"/>
-        <n v="43"/>
-        <n v="47.25"/>
-        <n v="24"/>
-        <n v="350"/>
-        <n v="328.75"/>
-        <n v="352.75"/>
-        <n v="357.5"/>
-        <n v="369.75"/>
-        <n v="650.5"/>
-        <n v="534"/>
-        <n v="553.75"/>
-        <n v="710"/>
-        <n v="709.25"/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="20">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="3"/>
-    <x v="5"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="3"/>
-    <x v="6"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="7"/>
-    <x v="4"/>
-    <x v="7"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="8"/>
-    <x v="5"/>
-    <x v="8"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="9"/>
-    <x v="6"/>
-    <x v="9"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="7"/>
-    <x v="10"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="8"/>
-    <x v="11"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="12"/>
-    <x v="8"/>
-    <x v="12"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="13"/>
-    <x v="7"/>
-    <x v="13"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="4"/>
-    <x v="14"/>
-    <x v="7"/>
-    <x v="14"/>
-    <x v="14"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{76DBB500-6C1A-F74A-ABBE-7F3189569460}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:E28" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="6">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="16">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="8"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="10">
-        <item x="2"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="16">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0">
-      <items count="16">
-        <item x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="10"/>
-        <item x="14"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="25">
-    <i>
-      <x/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-  </colItems>
-  <dataFields count="4">
-    <dataField name="Average of Ave Wait time" fld="2" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of CPU Utilization" fld="3" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Throughput" fld="4" subtotal="average" baseField="0" baseItem="0"/>
-    <dataField name="Average of Ave Turn Around" fld="5" subtotal="average" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B7EDBBB2-94C0-FC41-8007-BC63D546A61E}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0" headerRowDxfId="6" tableBorderDxfId="5">
-  <autoFilter ref="A1:F21" xr:uid="{6BD59F9C-3992-7044-9FAB-B48FF69E9B79}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{47EE22A9-AF0B-3147-8085-7FA3CCE5C61A}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{FD7851DC-79A3-7846-85B5-345BCA167A16}" name="Schedule" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B468E45C-CD41-364E-B58D-158618B34743}" name="Ave Wait time" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{BB443088-5625-834B-A06C-B6B048DCDBDF}" name="CPU Utilization" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2A4DBDF0-3224-A844-8558-A201F72B1F1F}" name="Throughput" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{3AD161D3-1DED-8A49-B895-F136EE13536C}" name="Ave Turn Around" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5837,7 +5136,7 @@
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:E34"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5850,27 +5149,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>23.5</v>
@@ -5955,27 +5254,27 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -6060,27 +5359,27 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B21" s="1">
         <v>62</v>
@@ -6165,27 +5464,27 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="E29" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B30" s="1">
         <v>441</v>
@@ -6272,924 +5571,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4FE6628-FE38-9E4F-A8ED-CB21C6867EE5}">
-  <dimension ref="A3:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="C4" s="4">
-        <v>96.344434000000007</v>
-      </c>
-      <c r="D4" s="4">
-        <v>52.05</v>
-      </c>
-      <c r="E4" s="4">
-        <v>44.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="C5" s="4">
-        <v>96.923079999999999</v>
-      </c>
-      <c r="D5" s="4">
-        <v>52.75</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>21.25</v>
-      </c>
-      <c r="C6" s="4">
-        <v>96.923079999999999</v>
-      </c>
-      <c r="D6" s="4">
-        <v>50.25</v>
-      </c>
-      <c r="E6" s="4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>23.5</v>
-      </c>
-      <c r="C7" s="4">
-        <v>96.923079999999999</v>
-      </c>
-      <c r="D7" s="4">
-        <v>52.75</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4">
-        <v>24.75</v>
-      </c>
-      <c r="C8" s="4">
-        <v>96.923079999999999</v>
-      </c>
-      <c r="D8" s="4">
-        <v>54.5</v>
-      </c>
-      <c r="E8" s="4">
-        <v>47.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4">
-        <v>21</v>
-      </c>
-      <c r="C9" s="4">
-        <v>94.029849999999996</v>
-      </c>
-      <c r="D9" s="4">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4">
-        <v>42.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="4">
-        <v>66.650000000000006</v>
-      </c>
-      <c r="C10" s="4">
-        <v>75.467251000000005</v>
-      </c>
-      <c r="D10" s="4">
-        <v>359</v>
-      </c>
-      <c r="E10" s="4">
-        <v>351.75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
-        <v>62</v>
-      </c>
-      <c r="C11" s="4">
-        <v>76.252319999999997</v>
-      </c>
-      <c r="D11" s="4">
-        <v>357.25</v>
-      </c>
-      <c r="E11" s="4">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4">
-        <v>62.75</v>
-      </c>
-      <c r="C12" s="4">
-        <v>78.435119999999998</v>
-      </c>
-      <c r="D12" s="4">
-        <v>360</v>
-      </c>
-      <c r="E12" s="4">
-        <v>352.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4">
-        <v>79.5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>73.524154999999993</v>
-      </c>
-      <c r="D13" s="4">
-        <v>377</v>
-      </c>
-      <c r="E13" s="4">
-        <v>369.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4">
-        <v>82</v>
-      </c>
-      <c r="C14" s="4">
-        <v>72.872339999999994</v>
-      </c>
-      <c r="D14" s="4">
-        <v>364.75</v>
-      </c>
-      <c r="E14" s="4">
-        <v>357.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="4">
-        <v>47</v>
-      </c>
-      <c r="C15" s="4">
-        <v>76.252319999999997</v>
-      </c>
-      <c r="D15" s="4">
-        <v>336</v>
-      </c>
-      <c r="E15" s="4">
-        <v>328.75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4">
-        <v>0</v>
-      </c>
-      <c r="C16" s="4">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="D16" s="4">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="4">
-        <v>0</v>
-      </c>
-      <c r="C17" s="4">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="D17" s="4">
-        <v>26</v>
-      </c>
-      <c r="E17" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="4">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="D18" s="4">
-        <v>26</v>
-      </c>
-      <c r="E18" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="D19" s="4">
-        <v>26</v>
-      </c>
-      <c r="E19" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="4">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="D20" s="4">
-        <v>26</v>
-      </c>
-      <c r="E20" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="D21" s="4">
-        <v>26</v>
-      </c>
-      <c r="E21" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="4">
-        <v>422</v>
-      </c>
-      <c r="C22" s="4">
-        <v>99.449553999999992</v>
-      </c>
-      <c r="D22" s="4">
-        <v>638.75</v>
-      </c>
-      <c r="E22" s="4">
-        <v>631.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="4">
-        <v>441</v>
-      </c>
-      <c r="C23" s="4">
-        <v>99.748429999999999</v>
-      </c>
-      <c r="D23" s="4">
-        <v>657.75</v>
-      </c>
-      <c r="E23" s="4">
-        <v>650.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="4">
-        <v>344.25</v>
-      </c>
-      <c r="C24" s="4">
-        <v>99.001239999999996</v>
-      </c>
-      <c r="D24" s="4">
-        <v>561</v>
-      </c>
-      <c r="E24" s="4">
-        <v>553.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="4">
-        <v>499.75</v>
-      </c>
-      <c r="C25" s="4">
-        <v>99.748429999999999</v>
-      </c>
-      <c r="D25" s="4">
-        <v>716.5</v>
-      </c>
-      <c r="E25" s="4">
-        <v>709.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="4">
-        <v>500.5</v>
-      </c>
-      <c r="C26" s="4">
-        <v>99.748429999999999</v>
-      </c>
-      <c r="D26" s="4">
-        <v>717.25</v>
-      </c>
-      <c r="E26" s="4">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4">
-        <v>324.5</v>
-      </c>
-      <c r="C27" s="4">
-        <v>99.001239999999996</v>
-      </c>
-      <c r="D27" s="4">
-        <v>541.25</v>
-      </c>
-      <c r="E27" s="4">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="4">
-        <v>127.8625</v>
-      </c>
-      <c r="C28" s="4">
-        <v>84.161462250000028</v>
-      </c>
-      <c r="D28" s="4">
-        <v>268.95</v>
-      </c>
-      <c r="E28" s="4">
-        <v>263.01249999999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F770CDEB-7B50-7540-8846-852B0F9DF3F3}">
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection sqref="A1:F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" customWidth="1"/>
-    <col min="4" max="4" width="14.83203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>96.923079999999999</v>
-      </c>
-      <c r="E2" s="1">
-        <v>52.75</v>
-      </c>
-      <c r="F2" s="10">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>21</v>
-      </c>
-      <c r="D3" s="1">
-        <v>94.029849999999996</v>
-      </c>
-      <c r="E3" s="1">
-        <v>50</v>
-      </c>
-      <c r="F3" s="10">
-        <v>42.75</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
-        <v>21.25</v>
-      </c>
-      <c r="D4" s="1">
-        <v>96.923079999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>50.25</v>
-      </c>
-      <c r="F4" s="10">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1">
-        <v>24.75</v>
-      </c>
-      <c r="D5" s="1">
-        <v>96.923079999999999</v>
-      </c>
-      <c r="E5" s="1">
-        <v>54.5</v>
-      </c>
-      <c r="F5" s="10">
-        <v>47.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23.5</v>
-      </c>
-      <c r="D6" s="1">
-        <v>96.923079999999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>52.75</v>
-      </c>
-      <c r="F6" s="10">
-        <v>45.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="E7" s="1">
-        <v>26</v>
-      </c>
-      <c r="F7" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="E8" s="1">
-        <v>26</v>
-      </c>
-      <c r="F8" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="E9" s="1">
-        <v>26</v>
-      </c>
-      <c r="F9" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="E10" s="1">
-        <v>26</v>
-      </c>
-      <c r="F10" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-      <c r="D11" s="1">
-        <v>65.384609999999995</v>
-      </c>
-      <c r="E11" s="1">
-        <v>26</v>
-      </c>
-      <c r="F11" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>62</v>
-      </c>
-      <c r="D12" s="1">
-        <v>76.252319999999997</v>
-      </c>
-      <c r="E12" s="1">
-        <v>357.25</v>
-      </c>
-      <c r="F12" s="10">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1">
-        <v>47</v>
-      </c>
-      <c r="D13" s="1">
-        <v>76.252319999999997</v>
-      </c>
-      <c r="E13" s="1">
-        <v>336</v>
-      </c>
-      <c r="F13" s="10">
-        <v>328.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1">
-        <v>62.75</v>
-      </c>
-      <c r="D14" s="1">
-        <v>78.435119999999998</v>
-      </c>
-      <c r="E14" s="1">
-        <v>360</v>
-      </c>
-      <c r="F14" s="10">
-        <v>352.75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>82</v>
-      </c>
-      <c r="D15" s="1">
-        <v>72.872339999999994</v>
-      </c>
-      <c r="E15" s="1">
-        <v>364.75</v>
-      </c>
-      <c r="F15" s="10">
-        <v>357.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1">
-        <v>79.5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>73.524154999999993</v>
-      </c>
-      <c r="E16" s="1">
-        <v>377</v>
-      </c>
-      <c r="F16" s="10">
-        <v>369.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="1">
-        <v>441</v>
-      </c>
-      <c r="D17" s="1">
-        <v>99.748429999999999</v>
-      </c>
-      <c r="E17" s="1">
-        <v>657.75</v>
-      </c>
-      <c r="F17" s="10">
-        <v>650.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="1">
-        <v>324.5</v>
-      </c>
-      <c r="D18" s="1">
-        <v>99.001239999999996</v>
-      </c>
-      <c r="E18" s="1">
-        <v>541.25</v>
-      </c>
-      <c r="F18" s="10">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1">
-        <v>344.25</v>
-      </c>
-      <c r="D19" s="1">
-        <v>99.001239999999996</v>
-      </c>
-      <c r="E19" s="1">
-        <v>561</v>
-      </c>
-      <c r="F19" s="10">
-        <v>553.75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>500.5</v>
-      </c>
-      <c r="D20" s="1">
-        <v>99.748429999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>717.25</v>
-      </c>
-      <c r="F20" s="10">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>499.75</v>
-      </c>
-      <c r="D21" s="1">
-        <v>99.748429999999999</v>
-      </c>
-      <c r="E21" s="1">
-        <v>716.5</v>
-      </c>
-      <c r="F21" s="10">
-        <v>709.25</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>